--- a/media/Templates/export_transactions.xlsx
+++ b/media/Templates/export_transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ousam\Desktop\Git\Enterprise-Management-Software\media\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7838BAC-39EF-4FFC-BC1B-57602F1DEE20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D80BE7-2E9F-41A5-9F64-CD1B40FFA34C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,6 +462,6 @@
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="17" orientation="portrait"/>
+  <pageSetup paperSize="17" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>